--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Matn1-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Matn1-Itgb1.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.281040247466128</v>
+        <v>0.3987123333333333</v>
       </c>
       <c r="H2">
-        <v>0.281040247466128</v>
+        <v>1.196137</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>24.85647851901095</v>
+        <v>39.45127920172933</v>
       </c>
       <c r="R2">
-        <v>24.85647851901095</v>
+        <v>355.061512815564</v>
       </c>
       <c r="S2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="T2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.281040247466128</v>
+        <v>0.3987123333333333</v>
       </c>
       <c r="H3">
-        <v>0.281040247466128</v>
+        <v>1.196137</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,34 +611,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>45.76388111475924</v>
+        <v>64.99259657053989</v>
       </c>
       <c r="R3">
-        <v>45.76388111475924</v>
+        <v>584.933369134859</v>
       </c>
       <c r="S3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="T3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.281040247466128</v>
+        <v>0.3987123333333333</v>
       </c>
       <c r="H4">
-        <v>0.281040247466128</v>
+        <v>1.196137</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,34 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>17.37405888357943</v>
+        <v>26.07423427998223</v>
       </c>
       <c r="R4">
-        <v>17.37405888357943</v>
+        <v>234.66810851984</v>
       </c>
       <c r="S4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="T4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.281040247466128</v>
+        <v>0.3987123333333333</v>
       </c>
       <c r="H5">
-        <v>0.281040247466128</v>
+        <v>1.196137</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N5">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q5">
-        <v>39.43261970912886</v>
+        <v>57.52334339549222</v>
       </c>
       <c r="R5">
-        <v>39.43261970912886</v>
+        <v>517.71009055943</v>
       </c>
       <c r="S5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="T5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
     </row>
   </sheetData>
